--- a/Demo-master/record.xlsx
+++ b/Demo-master/record.xlsx
@@ -15,12 +15,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
   <si>
     <t>本周小组任务</t>
-  </si>
-  <si>
-    <t> </t>
   </si>
   <si>
     <t>姓名</t>
@@ -51,6 +48,7 @@
     <r>
       <rPr>
         <rFont val="AR PL UMing HK"/>
+        <charset val="1"/>
         <family val="2"/>
         <color rgb="FF000000"/>
         <sz val="11"/>
@@ -87,6 +85,12 @@
   </si>
   <si>
     <t>完成添加用户的功能</t>
+  </si>
+  <si>
+    <t>Edit User ,Delete User</t>
+  </si>
+  <si>
+    <t>完成编辑用户，删除用户功能</t>
   </si>
 </sst>
 </file>
@@ -101,6 +105,7 @@
   <fonts count="5">
     <font>
       <name val="AR PL UMing HK"/>
+      <charset val="1"/>
       <family val="2"/>
       <color rgb="FF000000"/>
       <sz val="11"/>
@@ -183,19 +188,19 @@
       <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="true"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="4" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="true"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
     <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="true"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="4" numFmtId="165" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="4" numFmtId="166" xfId="0">
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="165" xfId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="166" xfId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="166" xfId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
@@ -216,10 +221,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="F5" activeCellId="0" pane="topLeft" sqref="F5"/>
+      <selection activeCell="G6" activeCellId="0" pane="topLeft" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -231,6 +236,7 @@
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="10.6649484536082"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="40.1082474226804"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="0" width="54.2731958762887"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="8.73711340206186"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.5" outlineLevel="0" r="1">
@@ -239,82 +245,97 @@
       </c>
       <c r="B1" s="1"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="112.5" outlineLevel="0" r="2" s="2">
-      <c r="A2" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
+    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="112.5" outlineLevel="0" r="2" s="2"/>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.5" outlineLevel="0" r="3">
       <c r="A3" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="C3" s="0" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="D3" s="0" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="E3" s="0" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="0" t="s">
+      <c r="F3" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="0" t="s">
+      <c r="G3" s="0" t="s">
         <v>7</v>
-      </c>
-      <c r="G3" s="0" t="s">
-        <v>8</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="42" outlineLevel="0" r="4">
       <c r="A4" s="0" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>2012150339</v>
       </c>
       <c r="C4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="E4" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="F4" s="4" t="s">
+      <c r="G4" s="3" t="s">
         <v>12</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>13</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="42" outlineLevel="0" r="5">
       <c r="A5" s="0" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>2012150307</v>
       </c>
       <c r="C5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F5" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" s="6" t="n">
+      <c r="G5" s="3"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="6">
+      <c r="A6" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>2012150307</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="6" t="n">
         <v>0.5</v>
       </c>
-      <c r="F5" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G5" s="3"/>
+      <c r="F6" s="0" t="s">
+        <v>17</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="1">
     <mergeCell ref="A1:B1"/>
-    <mergeCell ref="2:2"/>
   </mergeCells>
   <conditionalFormatting sqref="E4:E10">
     <cfRule priority="2" type="dataBar">
@@ -325,7 +346,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{EBD4F6CB-FA8E-445F-8BEA-B76219B5F7FD}</x14:id>
+          <x14:id>{855533C7-46FE-4910-8CF2-7D9887005C2E}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -341,7 +362,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule id="{EBD4F6CB-FA8E-445F-8BEA-B76219B5F7FD}" type="dataBar">
+          <x14:cfRule id="{855533C7-46FE-4910-8CF2-7D9887005C2E}" type="dataBar">
             <x14:dataBar axisPosition="automatic" maxLength="100" minLength="0">
               <x14:cfvo type="autoMin" value="0"/>
               <x14:cfvo type="autoMax" value="0"/>
